--- a/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_Arm_Ax3.xlsx
+++ b/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_Arm_Ax3.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Subframe_Conn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF81FE-EDE4-4305-8837-B609362FD58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE34AF-9E97-45AD-96AA-D55819B5AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="988" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
+    <workbookView xWindow="29565" yWindow="2235" windowWidth="23130" windowHeight="12540" tabRatio="988" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
   </bookViews>
   <sheets>
-    <sheet name="BushingAx3_Sedan_UA" sheetId="53" r:id="rId1"/>
+    <sheet name="BushArm_Ax3_SedanLG_UA" sheetId="53" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
   <si>
     <t>Units</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Linear / Table</t>
-  </si>
-  <si>
-    <t>Linear / Table /Maxwell SLS</t>
   </si>
   <si>
     <t>class</t>
@@ -654,7 +651,7 @@
       <selection activeCell="P28" sqref="P28:P34"/>
       <selection pane="topRight" activeCell="P28" sqref="P28:P34"/>
       <selection pane="bottomLeft" activeCell="P28" sqref="P28:P34"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,12 +697,12 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -714,7 +711,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -726,23 +723,23 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="19">
         <f>J5+$N$5</f>
@@ -780,12 +777,12 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="19">
         <f>F5</f>
@@ -805,12 +802,12 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="19">
         <f>J7+$N$5</f>
@@ -836,12 +833,12 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="19">
         <f>F7</f>
@@ -858,14 +855,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>7</v>
@@ -880,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -979,7 +976,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
@@ -1138,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
@@ -1403,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -1636,14 +1633,14 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="6"/>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>7</v>
@@ -1658,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>16</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>16</v>
@@ -1916,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -2015,7 +2012,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>16</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>16</v>
@@ -2181,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>16</v>
